--- a/settings/choices.xlsx
+++ b/settings/choices.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\yt_downloader\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\yt_downloader\settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54487FC-07E3-4CEE-9823-B6FC21CC8C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3250F5B3-2464-4B97-824B-82B549DA39FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9D01EF9F-805A-44AF-B821-610EA819B7E4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Speed</t>
   </si>
@@ -96,9 +96,6 @@
     <t>music</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>16:9</t>
   </si>
   <si>
@@ -121,6 +118,12 @@
   </si>
   <si>
     <t>background_video.mp4</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>cut 1s each 5s</t>
   </si>
 </sst>
 </file>
@@ -523,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D18822D4-16F5-426F-B500-EFF23FE3A7F9}">
-  <dimension ref="A1:U19"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,26 +538,26 @@
     <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" customWidth="1"/>
-    <col min="18" max="18" width="19.85546875" customWidth="1"/>
-    <col min="19" max="19" width="17" customWidth="1"/>
-    <col min="20" max="20" width="29.85546875" customWidth="1"/>
-    <col min="21" max="21" width="23.140625" customWidth="1"/>
+    <col min="5" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" customWidth="1"/>
+    <col min="18" max="18" width="13.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.85546875" customWidth="1"/>
+    <col min="20" max="20" width="17" customWidth="1"/>
+    <col min="21" max="21" width="29.85546875" customWidth="1"/>
+    <col min="22" max="22" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -565,72 +568,75 @@
         <v>8</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="U1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
@@ -638,17 +644,17 @@
       <c r="F2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="5">
+      <c r="G2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="5">
         <v>1</v>
       </c>
-      <c r="I2" s="5">
-        <v>0</v>
-      </c>
       <c r="J2" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K2" s="5">
         <v>0</v>
@@ -657,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" s="5">
         <v>1</v>
@@ -666,45 +672,48 @@
         <v>1</v>
       </c>
       <c r="P2" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="5">
         <v>0</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="R2" s="5">
         <v>440</v>
       </c>
-      <c r="R2" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>20</v>
+      <c r="S2" s="5">
+        <v>1</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="U2" s="5">
+        <v>28</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B10"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="19" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K19" t="s">
-        <v>23</v>
+    <row r="19" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L19" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
